--- a/Prosjektregnskap KrUltraCR.xlsx
+++ b/Prosjektregnskap KrUltraCR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16b2c794ae8557f5/Documents/KrUltra/CR/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="11_AD4D1D646341095ACB7000AE0DDF40365ADEDD81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E5454B6-51EB-4CBB-A33B-8668F098F8CA}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="11_AD4D1D646341095ACB7000AE0DDF40365ADEDD81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CCFFB4D-7F3B-4F9C-8B1D-76C48E6D84ED}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-53" yWindow="-53" windowWidth="25706" windowHeight="15506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>PRODUKTNAVN</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>USB-A 3.0 til USB C kabel 2m</t>
+  </si>
+  <si>
+    <t>ESP32-CAM Overvåkningskamera ansiktsgjenkjenning - WIFI og Bluetooth Security camera - face recognition</t>
+  </si>
+  <si>
+    <t>9V Batteri tilkobling - Battery Connector</t>
   </si>
 </sst>
 </file>
@@ -255,18 +264,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -293,7 +299,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,12 +326,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,9 +365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>143933</xdr:colOff>
+      <xdr:colOff>143943</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
+      <xdr:rowOff>105844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -545,68 +548,6 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>29633</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Bilde 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4" tgtFrame="_blank"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA725ECF-7E0D-E8A4-314B-31A83A1408DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4758267"/>
-          <a:ext cx="211667" cy="211666"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>97366</xdr:rowOff>
@@ -626,7 +567,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -669,9 +610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>427564</xdr:colOff>
+      <xdr:colOff>427554</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>237057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -687,7 +628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -990,782 +931,837 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.1171875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.9375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.52734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.1171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.9375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.52734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.52734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.9375" style="3"/>
-    <col min="6" max="6" width="9.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.41015625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.9375" style="1"/>
+    <col min="6" max="6" width="9.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.41015625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="58.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <f>SUBTOTAL(9,G3:G136)</f>
-        <v>2300.4499999999998</v>
+        <v>2998.45</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>45172</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>5</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f>G3/E3</f>
         <v>21</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>105</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>45172</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>G4/E4</f>
         <v>85</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>85</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>45172</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>3</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>G5/E5</f>
         <v>82.649999999999991</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>247.95</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>45172</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>4</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>40</v>
       </c>
-      <c r="G6" s="17">
-        <f>F6*E6</f>
+      <c r="G6" s="16">
+        <f t="shared" ref="G6:G22" si="0">F6*E6</f>
         <v>160</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>45172</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>699</v>
       </c>
-      <c r="G7" s="17">
-        <f>F7*E7</f>
+      <c r="G7" s="16">
+        <f t="shared" si="0"/>
         <v>699</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>45125</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>199</v>
       </c>
-      <c r="G8" s="17">
-        <f>F8*E8</f>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>45144</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>72.5</v>
       </c>
-      <c r="G9" s="17">
-        <f>F9*E9</f>
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>45125</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>21</v>
       </c>
-      <c r="G10" s="17">
-        <f>F10*E10</f>
+      <c r="G10" s="16">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>45125</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>21</v>
       </c>
-      <c r="G11" s="17">
-        <f>F11*E11</f>
+      <c r="G11" s="16">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>45125</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="15">
+      <c r="D12" s="25"/>
+      <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>21</v>
       </c>
-      <c r="G12" s="17">
-        <f>F12*E12</f>
+      <c r="G12" s="16">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>45125</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="15">
+      <c r="D13" s="25"/>
+      <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>33</v>
       </c>
-      <c r="G13" s="17">
-        <f>F13*E13</f>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="43" x14ac:dyDescent="0.5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>45128</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="15">
+      <c r="D14" s="19"/>
+      <c r="E14" s="14">
         <v>2</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>78</v>
       </c>
-      <c r="G14" s="17">
-        <f>F14*E14</f>
+      <c r="G14" s="16">
+        <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>45128</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="15">
+      <c r="D15" s="19"/>
+      <c r="E15" s="14">
         <v>1</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>69</v>
       </c>
-      <c r="G15" s="17">
-        <f>F15*E15</f>
+      <c r="G15" s="16">
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>45117</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="15">
+      <c r="D16" s="19"/>
+      <c r="E16" s="14">
         <v>5</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>33</v>
       </c>
-      <c r="G16" s="17">
-        <f>F16*E16</f>
+      <c r="G16" s="16">
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>45117</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="15">
+      <c r="D17" s="19"/>
+      <c r="E17" s="14">
         <v>2</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>79</v>
       </c>
-      <c r="G17" s="17">
-        <f>F17*E17</f>
+      <c r="G17" s="16">
+        <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>45117</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="15">
+      <c r="D18" s="10"/>
+      <c r="E18" s="14">
         <v>1</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>67</v>
       </c>
-      <c r="G18" s="17">
-        <f>F18*E18</f>
+      <c r="G18" s="16">
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="21"/>
+    <row r="19" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+      <c r="A19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="11">
+        <v>45179</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10">
+        <f>267/3</f>
+        <v>89</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="21"/>
+      <c r="A20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="11">
+        <v>45179</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="14">
+        <v>2</v>
+      </c>
+      <c r="F20" s="15">
+        <f>258/2</f>
+        <v>129</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="11">
+        <v>45179</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15">
+        <v>129</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="11">
+        <v>45179</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14">
+        <v>4</v>
+      </c>
+      <c r="F22" s="15">
+        <v>11</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="21"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="21"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="21"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="21"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="21"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="21"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="21"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="21"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="21"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="21"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="21"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="21"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="21"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="21"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="21"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="21"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="21"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="21"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="21"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="21"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="21"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="21"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="21"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="21"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="21"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="21"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="21"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="21"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="21"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Prosjektregnskap KrUltraCR.xlsx
+++ b/Prosjektregnskap KrUltraCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16b2c794ae8557f5/Documents/KrUltra/CR/v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16b2c794ae8557f5/Documents/KrUltra/CR - Checkpoint Registration/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="11_AD4D1D646341095ACB7000AE0DDF40365ADEDD81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CCFFB4D-7F3B-4F9C-8B1D-76C48E6D84ED}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="11_AD4D1D646341095ACB7000AE0DDF40365ADEDD81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20BF2CCE-9233-430E-8274-A0690EFA5FC0}"/>
   <bookViews>
-    <workbookView xWindow="-53" yWindow="-53" windowWidth="25706" windowHeight="15506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31515" yWindow="-21720" windowWidth="26040" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -359,15 +359,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>270933</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>296334</xdr:rowOff>
+      <xdr:rowOff>447676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>143943</xdr:colOff>
+      <xdr:colOff>94202</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>105844</xdr:rowOff>
+      <xdr:rowOff>85736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -397,8 +397,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9584266" y="1024467"/>
-          <a:ext cx="516467" cy="351367"/>
+          <a:off x="9534525" y="1533526"/>
+          <a:ext cx="522827" cy="352435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -428,7 +428,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>55033</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -481,15 +481,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -519,8 +519,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9592733" y="1274233"/>
-          <a:ext cx="516467" cy="478367"/>
+          <a:off x="9515475" y="2076450"/>
+          <a:ext cx="523875" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,7 +550,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>97366</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -610,9 +610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>427554</xdr:colOff>
+      <xdr:colOff>428612</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>237057</xdr:rowOff>
+      <xdr:rowOff>238115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -931,7 +931,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="42.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
